--- a/Configs/Map.xlsx
+++ b/Configs/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA262709-1BBD-4F2B-B177-4FD50258E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED708CD9-149E-42B9-9DD2-CC29B2E7FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8182" yWindow="1305" windowWidth="20108" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -47,6 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -151,6 +153,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,6 +161,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -466,7 +470,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -542,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -556,10 +560,10 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -573,10 +577,10 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Map.xlsx
+++ b/Configs/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED708CD9-149E-42B9-9DD2-CC29B2E7FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3CCB0-0757-405B-8DCF-EFFE0643A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1087" windowWidth="18938" windowHeight="15061" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,11 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试一下字数六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
+    <t>位于城区附近的森林。战火尚未蔓延到此，辐射的扩散也因为森林的存在而减缓，所以有不少人到此避难，但不是每个人都有野外生存的能力……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾是繁华的住宅区，如今却被层层废墟覆盖。在这片废弃的区域，散落的生活用品与遮盖物为寻找资源的人提供了一线希望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业已荒废的市中心，过去是城市的心脏，现在是辐射的暴风眼。尽管这里被战火与死亡所笼罩，但仍蕴藏着大量被遗弃的物资——这足够让许多人铤而走险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -540,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -557,13 +561,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -574,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>4</v>
